--- a/templates/Site to Site.xlsx
+++ b/templates/Site to Site.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118739EE-0925-4C47-A15C-EC0E310A0F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CFE083-B1AD-4221-9156-9548657A6D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8890-Lot-existing" sheetId="5" r:id="rId1"/>
     <sheet name="RSTK-8891-Lot-New" sheetId="7" r:id="rId2"/>
     <sheet name="RSTK-8892-Serial" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
   <si>
     <t>Item Name</t>
   </si>
@@ -153,6 +154,69 @@
   </si>
   <si>
     <t>NN18</t>
+  </si>
+  <si>
+    <t>multidiv no track</t>
+  </si>
+  <si>
+    <t>547TS</t>
+  </si>
+  <si>
+    <t>20 (Colo Springs)</t>
+  </si>
+  <si>
+    <t>Main (Main Warehouse)</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>100 ()</t>
+  </si>
+  <si>
+    <t>777 (BC Site)</t>
+  </si>
+  <si>
+    <t>Con1 (Consigned)</t>
+  </si>
+  <si>
+    <t>9TIOK</t>
+  </si>
+  <si>
+    <t>INSP (Inspection location)</t>
+  </si>
+  <si>
+    <t>B1N29</t>
+  </si>
+  <si>
+    <t>9RH2F</t>
+  </si>
+  <si>
+    <t>P-SC4V</t>
+  </si>
+  <si>
+    <t>L1001</t>
+  </si>
+  <si>
+    <t>P-Y247</t>
+  </si>
+  <si>
+    <t>P-0864</t>
+  </si>
+  <si>
+    <t>Pro-101</t>
+  </si>
+  <si>
+    <t>multidiv Serial track (Serial track)</t>
+  </si>
+  <si>
+    <t>BCOH (On Hand Loc)</t>
+  </si>
+  <si>
+    <t>OHv (OH vendor)</t>
+  </si>
+  <si>
+    <t>BKF1</t>
   </si>
 </sst>
 </file>
@@ -519,22 +583,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39878C7E-24F2-4D35-BABD-80F967F0F33B}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
@@ -599,19 +663,19 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -622,36 +686,328 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2">
-        <v>200</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -662,24 +1018,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F85960-0F54-4DCC-BB2F-5B38F7825B71}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -729,7 +1085,7 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
@@ -744,11 +1100,10 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2">
@@ -765,7 +1120,7 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -780,11 +1135,10 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="K3">
@@ -816,11 +1170,10 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4">
@@ -837,7 +1190,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
@@ -852,11 +1205,10 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5">
@@ -866,17 +1218,181 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162C36B-ECFB-4DAC-AD3A-9CBFF0F4681E}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,8 +1403,7 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1009,12 +1524,149 @@
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>111</v>
+      </c>
       <c r="J4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>1001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>1001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>1001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>1001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF990F7C-BF08-461B-951D-BFEBE33349E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/Site to Site.xlsx
+++ b/templates/Site to Site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118739EE-0925-4C47-A15C-EC0E310A0F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE44E4-59FB-407A-BEA9-1F9FFAA298F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8890-Lot-existing" sheetId="5" r:id="rId1"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39878C7E-24F2-4D35-BABD-80F967F0F33B}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +665,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L5" sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162C36B-ECFB-4DAC-AD3A-9CBFF0F4681E}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/Site to Site.xlsx
+++ b/templates/Site to Site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE44E4-59FB-407A-BEA9-1F9FFAA298F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27C1CB-F441-4CC1-B1F0-9F941BBA0355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8890-Lot-existing" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t>Item Name</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>C18 (Consigned 21.18)</t>
-  </si>
-  <si>
-    <t>NN18 (NN 21.18)</t>
   </si>
   <si>
     <t>LT2</t>
@@ -521,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39878C7E-24F2-4D35-BABD-80F967F0F33B}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F85960-0F54-4DCC-BB2F-5B38F7825B71}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="A1:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,13 +727,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -765,14 +762,14 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -781,14 +778,14 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -801,14 +798,14 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -817,52 +814,16 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
         <v>22</v>
       </c>
     </row>
